--- a/Jogos_do_Dia/2023-09-11_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-09-11_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -670,13 +670,13 @@
         <v>49</v>
       </c>
       <c r="G2">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="I2">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="J2">
         <v>1.1</v>
@@ -685,10 +685,10 @@
         <v>6.5</v>
       </c>
       <c r="L2">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="M2">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="N2">
         <v>2.7</v>
@@ -991,13 +991,13 @@
         <v>52</v>
       </c>
       <c r="G5">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="H5">
-        <v>2.95</v>
+        <v>2.8</v>
       </c>
       <c r="I5">
-        <v>2.95</v>
+        <v>2.87</v>
       </c>
       <c r="J5">
         <v>1.11</v>
@@ -1006,10 +1006,10 @@
         <v>6.75</v>
       </c>
       <c r="L5">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="M5">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="N5">
         <v>2.55</v>
@@ -1098,13 +1098,13 @@
         <v>53</v>
       </c>
       <c r="G6">
-        <v>2.13</v>
+        <v>2.2</v>
       </c>
       <c r="H6">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I6">
-        <v>2.85</v>
+        <v>3.2</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="O6">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="P6">
         <v>0</v>

--- a/Jogos_do_Dia/2023-09-11_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-09-11_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -670,13 +670,13 @@
         <v>49</v>
       </c>
       <c r="G2">
-        <v>2.3</v>
+        <v>2.17</v>
       </c>
       <c r="H2">
-        <v>2.87</v>
+        <v>6.02</v>
       </c>
       <c r="I2">
-        <v>3.25</v>
+        <v>2.07</v>
       </c>
       <c r="J2">
         <v>1.1</v>
@@ -685,16 +685,16 @@
         <v>6.5</v>
       </c>
       <c r="L2">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="M2">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="N2">
-        <v>2.7</v>
+        <v>2.52</v>
       </c>
       <c r="O2">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="P2">
         <v>1.57</v>
@@ -991,13 +991,13 @@
         <v>52</v>
       </c>
       <c r="G5">
-        <v>2.5</v>
+        <v>2.31</v>
       </c>
       <c r="H5">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="I5">
-        <v>2.87</v>
+        <v>4.34</v>
       </c>
       <c r="J5">
         <v>1.11</v>
@@ -1006,16 +1006,16 @@
         <v>6.75</v>
       </c>
       <c r="L5">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M5">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="N5">
-        <v>2.55</v>
+        <v>2.44</v>
       </c>
       <c r="O5">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="P5">
         <v>1.57</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AG5">
         <v>1.33</v>
@@ -1098,13 +1098,13 @@
         <v>53</v>
       </c>
       <c r="G6">
-        <v>2.2</v>
+        <v>1.84</v>
       </c>
       <c r="H6">
-        <v>3.4</v>
+        <v>2.59</v>
       </c>
       <c r="I6">
-        <v>3.2</v>
+        <v>5.54</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="O6">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="P6">
         <v>0</v>
